--- a/MITRE_ATLAS-2025.11.xlsx
+++ b/MITRE_ATLAS-2025.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MITRE_ATLAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D591C2-5DA7-4861-BF8E-C3B801D68638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD0301-AD76-4FF0-8ED5-6DFA26BE7E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2873,11 +2873,6 @@
     <t>attack-pattern--a48cde58-6c7d-5126-98b3-edc24f83b49b</t>
   </si>
   <si>
-    <t>Adversaries may attempt to get information about processes running on a system. Once obtained, this information could be used to gain an understanding of common AI-related software/applications running on systems within the network. Administrator or otherwise elevated access may provide better process details.
-Identifying the AI software stack can then lead an adversary to new targets and attack pathways. AI-related software may require application tokens to authenticate with backend services. This provides opportunities for [Credential Access](/tactics/AML.TA0013) and [Lateral Movement](/tactics/AML.TA0015).
-In Windows environments, adversaries could obtain details on running processes using the Tasklist utility via cmd or `Get-Process` via PowerShell. Information about processes can also be extracted from the output of Native API calls such as `CreateToolhelp32Snapshot`. In Mac and Linux, this is accomplished with the `ps` command. Adversaries may also opt to enumerate processes via `/proc`.</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0089</t>
   </si>
   <si>
@@ -2887,11 +2882,6 @@
     <t>attack-pattern--8f32b668-8420-5569-bbbe-f39c6b493aff</t>
   </si>
   <si>
-    <t>An adversary may introduce malicious prompts into the victim's system via a public-facing application with the intention of it being ingested by an AI at some point in the future and ultimately having a downstream effect. This may occur when a data source is indexed by a retrieval augmented generation (RAG) system, when a rule triggers an action by an AI agent, or when a user utilizes a large language model (LLM) to interact with the malicious content. The malicious prompts may persist on the victim system for an extended period and could affect multiple users and various AI tools within the victim organization.
-Any public-facing application that accepts text input could be a target. This includes email, shared document systems like OneDrive or Google Drive, and service desks or ticketing systems like Jira.
-Adversaries may perform [Reconnaissance](/tactics/AML.TA0002) to identify public facing applications that are likely monitored by an AI agent or are likely to be indexed by a RAG. They may perform [Discover AI Agent Configuration](/techniques/AML.T0084) to refine their targeting.</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0093</t>
   </si>
   <si>
@@ -2904,9 +2894,6 @@
     <t>attack-pattern--050087b9-3411-5fbf-ba6a-74c910c6ad86</t>
   </si>
   <si>
-    <t>Adversaries may attempt to use their access to a large language model (LLM) on the victim's system to collect credentials. Credentials may be stored in internal documents which can inadvertently be ingested into a RAG database, where they can ultimately be retrieved by an AI agent.</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0082</t>
   </si>
   <si>
@@ -2914,9 +2901,6 @@
   </si>
   <si>
     <t>attack-pattern--ba288685-9038-5a8d-99b2-ae738e39e825</t>
-  </si>
-  <si>
-    <t>Adversaries may prompt the AI service to retrieve data from a RAG database. This can include the majority of an organization's internal documents.</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0085.000</t>
@@ -3681,6 +3665,92 @@
     </rPh>
     <rPh sb="258" eb="260">
       <t>アクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>敵対者は、被害者のシステム上の大規模言語モデル（LLM）へのアクセスを利用して、資格情報を収集しようとする可能性があります。資格情報は、内部文書に保存され、意図せず RAG データベースに取り込まれ、最終的に AI エージェントによって取得される可能性があります。</t>
+    <rPh sb="0" eb="2">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>敵対者は、AI サービスに RAG データベースからデータを取得するよう指示する可能性があります。RAG データベースには、組織の内部文書の大部分が含まれる可能性があります。</t>
+    <rPh sb="0" eb="2">
+      <t>テキタイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>敵対者は、将来のある時点で悪意のあるプロンプトが AI に取り込まれ最終的に下流に影響を与えることを意図して、公開アプリケーションを介して被害者のシステムに悪意のあるプロンプトを仕込みます。これは、データ ソースが検索拡張生成（RAG）システムによってインデックス化される場合、ルールが AI エージェントのアクションをトリガーする場合、またはユーザーが大規模言語モデル（LLM）を使用して悪意のあるコンテンツとやり取りする場合に発生する可能性があります。悪意のあるプロンプトは被害者のシステムに長期間残留し、被害者組織内の複数のユーザーやさまざまな AI ツールに影響を与える可能性があります。
+テキスト入力を受け入れる公開アプリケーションはすべて標的となる可能性があります。これには、電子メール、OneDrive や Google Drive などの共有文書システム、Jira などのサービス デスクやチケット システムが含まれます。
+敵対者は、[偵察](/tactics/AML.TA0002)を実行して、AI エージェントによって監視されている可能性のある、または RAG によってインデックス化されている可能性のある公開アプリケーションを特定する可能性があります。また、[AI エージェントの設定の探索](/techniques/AML.T0084) を実行し、標的の絞り込みを洗練する可能性があります。</t>
+    <rPh sb="0" eb="2">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="380" eb="382">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="553" eb="555">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="556" eb="558">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="588" eb="590">
+      <t>ヒョウテキ</t>
+    </rPh>
+    <rPh sb="591" eb="592">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="593" eb="594">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="596" eb="598">
+      <t>センレン</t>
+    </rPh>
+    <rPh sb="600" eb="603">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>敵対者は、システム上で実行中のプロセスに関する情報を取得しようとする可能性があります。この情報を入手すれば、ネットワーク内のシステムで実行されている一般的な AI 関連ソフトウェア／アプリケーションを把握するために利用される可能性があります。管理者権限などの昇格された権限があれば、プロセスの詳細をより詳しく把握できる可能性があります。
+AI ソフトウェア スタックを特定することで、敵対者は、新たな標的や攻撃経路を見つける可能性があります。AI 関連ソフトウェアは、バックエンド サービスとの認証にアプリケーション トークンを必要とする場合があります。これは、[資格情報へのアクセス](/tactics/AML.TA0013)と[水平展開](/tactics/AML.TA0015)の機会となります。
+Windows 環境では、敵対者は、コマンド プロンプト経由で Tasklist ユーティリティを使用するか、PowerShell 経由で `Get-Process` を使用することで、実行中のプロセスの詳細を取得できます。プロセスに関する情報は、`CreateToolhelp32Snapshot` などのネイティブ API 呼び出しの出力から抽出することもできます。Mac と Linux では、`ps` コマンドで実行できます。また、敵対者は`/proc`を介してプロセスを列挙することもできます。</t>
+    <rPh sb="0" eb="2">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="367" eb="369">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="574" eb="576">
+      <t>テキタイ</t>
+    </rPh>
+    <rPh sb="586" eb="587">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -3954,14 +4024,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4268,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4322,10 +4392,10 @@
         <v>828</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>829</v>
@@ -4352,10 +4422,10 @@
         <v>830</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>199</v>
@@ -4382,10 +4452,10 @@
         <v>832</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>833</v>
@@ -4682,10 +4752,10 @@
         <v>836</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>837</v>
@@ -4774,7 +4844,7 @@
         <v>506</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>40</v>
@@ -4801,10 +4871,10 @@
         <v>839</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>840</v>
@@ -4923,7 +4993,7 @@
         <v>513</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>54</v>
@@ -5160,10 +5230,10 @@
         <v>845</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>846</v>
@@ -5219,10 +5289,10 @@
         <v>842</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>843</v>
@@ -5338,10 +5408,10 @@
         <v>848</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>849</v>
@@ -5457,10 +5527,10 @@
         <v>851</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>852</v>
@@ -5756,10 +5826,10 @@
         <v>854</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>855</v>
@@ -5905,10 +5975,10 @@
         <v>857</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>858</v>
@@ -6177,7 +6247,7 @@
         <v>584</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>164</v>
@@ -6234,10 +6304,10 @@
         <v>861</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>863</v>
@@ -6263,10 +6333,10 @@
         <v>862</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>864</v>
@@ -6832,10 +6902,10 @@
         <v>866</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>867</v>
@@ -6921,10 +6991,10 @@
         <v>869</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>870</v>
@@ -7010,10 +7080,10 @@
         <v>872</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>873</v>
@@ -7069,10 +7139,10 @@
         <v>875</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>876</v>
@@ -7308,13 +7378,13 @@
         <v>878</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>926</v>
-      </c>
-      <c r="D102" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>879</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>880</v>
       </c>
       <c r="F102" s="13">
         <v>45957</v>
@@ -7329,21 +7399,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A103" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="C103" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>882</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>883</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>884</v>
       </c>
       <c r="F103" s="13">
         <v>45959</v>
@@ -7352,7 +7422,7 @@
         <v>45967</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>6</v>
@@ -7450,19 +7520,19 @@
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>886</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>927</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>889</v>
       </c>
       <c r="F107" s="13">
         <v>45930</v>
@@ -7479,19 +7549,19 @@
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>928</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>892</v>
+        <v>924</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>958</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F108" s="13">
         <v>45930</v>
@@ -7718,19 +7788,19 @@
     </row>
     <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F116" s="13">
         <v>45966</v>
@@ -8077,19 +8147,19 @@
     </row>
     <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A128" s="29" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F128" s="13">
         <v>45930</v>
@@ -8106,19 +8176,19 @@
     </row>
     <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F129" s="13">
         <v>45930</v>
@@ -8195,19 +8265,19 @@
     </row>
     <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A132" s="29" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C132" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="D132" s="21" t="s">
-        <v>959</v>
-      </c>
       <c r="E132" s="16" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F132" s="13">
         <v>45965</v>
@@ -8284,19 +8354,19 @@
     </row>
     <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F135" s="13">
         <v>45957</v>
@@ -8927,7 +8997,7 @@
         <v>793</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>790</v>
@@ -9947,53 +10017,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="str">
+      <c r="A1" s="30" t="str">
         <f>'tactics (ja)'!C16</f>
         <v>偵察</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="str">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="str">
         <f>'tactics (ja)'!C17</f>
         <v>リソースの開発</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="str">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="str">
         <f>'tactics (ja)'!C12</f>
         <v>初期アクセス</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="5" t="str">
         <f>'tactics (ja)'!C3</f>
         <v>AI モデルへのアクセス</v>
       </c>
-      <c r="H1" s="32" t="str">
+      <c r="H1" s="30" t="str">
         <f>'tactics (ja)'!C9</f>
         <v>実行</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32" t="str">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="str">
         <f>'tactics (ja)'!C14</f>
         <v>永続化</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="5" t="str">
         <f>'tactics (ja)'!C15</f>
         <v>権限昇格</v>
       </c>
-      <c r="M1" s="32" t="str">
+      <c r="M1" s="30" t="str">
         <f>'tactics (ja)'!C7</f>
         <v>防御策の回避</v>
       </c>
-      <c r="N1" s="32"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="5" t="str">
         <f>'tactics (ja)'!C6</f>
         <v>資格情報へのアクセス</v>
       </c>
-      <c r="P1" s="32" t="str">
+      <c r="P1" s="30" t="str">
         <f>'tactics (ja)'!C8</f>
         <v>探索</v>
       </c>
-      <c r="Q1" s="32"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="22" t="s">
         <v>793</v>
       </c>
@@ -10001,25 +10071,25 @@
         <f>'tactics (ja)'!C4</f>
         <v>収集</v>
       </c>
-      <c r="T1" s="32" t="str">
+      <c r="T1" s="30" t="str">
         <f>'tactics (ja)'!C2</f>
         <v>AI 攻撃のステージング</v>
       </c>
-      <c r="U1" s="32"/>
+      <c r="U1" s="30"/>
       <c r="V1" s="5" t="str">
         <f>'tactics (ja)'!C5</f>
         <v>コマンド＆コントロール</v>
       </c>
-      <c r="W1" s="32" t="str">
+      <c r="W1" s="30" t="str">
         <f>'tactics (ja)'!C10</f>
         <v>持出し</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="str">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="str">
         <f>'tactics (ja)'!C11</f>
         <v>影響</v>
       </c>
-      <c r="Z1" s="32"/>
+      <c r="Z1" s="30"/>
     </row>
     <row r="2" spans="1:26" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
@@ -10074,7 +10144,7 @@
         <f>'techniques (ja)'!C5</f>
         <v>AI アーティファクトの収集</v>
       </c>
-      <c r="T2" s="30" t="str">
+      <c r="T2" s="32" t="str">
         <f>'techniques (ja)'!C28</f>
         <v>敵対的データの作成</v>
       </c>
@@ -10086,7 +10156,7 @@
         <f>'techniques (ja)'!C112</f>
         <v>リバース シェル</v>
       </c>
-      <c r="W2" s="30" t="str">
+      <c r="W2" s="32" t="str">
         <f>'techniques (ja)'!C56</f>
         <v>AI の推論 API による流出</v>
       </c>
@@ -10146,12 +10216,12 @@
         <f>'techniques (ja)'!C33</f>
         <v>情報リポジトリのデータ</v>
       </c>
-      <c r="T3" s="30"/>
+      <c r="T3" s="32"/>
       <c r="U3" s="3" t="str">
         <f>'techniques (ja)'!C20</f>
         <v>ブラック ボックス転送</v>
       </c>
-      <c r="W3" s="30"/>
+      <c r="W3" s="32"/>
       <c r="X3" s="3" t="str">
         <f>'techniques (ja)'!C72</f>
         <v>学習データのメンバーシップ推論</v>
@@ -10183,7 +10253,7 @@
         <f>'techniques (ja)'!C64</f>
         <v>AI モデルへの完全なアクセス</v>
       </c>
-      <c r="H4" s="30" t="str">
+      <c r="H4" s="32" t="str">
         <f>'techniques (ja)'!C79</f>
         <v>LLM プロンプト インジェクション</v>
       </c>
@@ -10196,7 +10266,7 @@
         <f>'techniques (ja)'!C99</f>
         <v>AI モデルの汚染</v>
       </c>
-      <c r="M4" s="30" t="str">
+      <c r="M4" s="32" t="str">
         <f>'techniques (ja)'!C62</f>
         <v>偽 RAG エントリ インジェクション</v>
       </c>
@@ -10212,12 +10282,12 @@
         <f>'techniques (ja)'!C34</f>
         <v>ローカル システムのデータ</v>
       </c>
-      <c r="T4" s="30"/>
+      <c r="T4" s="32"/>
       <c r="U4" s="3" t="str">
         <f>'techniques (ja)'!C73</f>
         <v>バックドア トリガーの挿入</v>
       </c>
-      <c r="W4" s="30"/>
+      <c r="W4" s="32"/>
       <c r="X4" s="3" t="str">
         <f>'techniques (ja)'!C74</f>
         <v>AI モデルの反転</v>
@@ -10246,7 +10316,7 @@
         <f>'techniques (ja)'!C98</f>
         <v>物理環境へのアクセス</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3" t="str">
         <f>'techniques (ja)'!C71</f>
         <v>間接（インジェクション）</v>
@@ -10255,7 +10325,7 @@
         <f>'techniques (ja)'!C100</f>
         <v>学習データの汚染</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="3" t="str">
         <f>'techniques (ja)'!C25</f>
         <v>コンテナ レジストリ</v>
@@ -10264,7 +10334,7 @@
         <f>'techniques (ja)'!C43</f>
         <v>AI モデルのオントロジーの探索</v>
       </c>
-      <c r="T5" s="30"/>
+      <c r="T5" s="32"/>
       <c r="U5" s="3" t="str">
         <f>'techniques (ja)'!C87</f>
         <v>手動による変更</v>
@@ -10315,7 +10385,7 @@
         <f>'techniques (ja)'!C109</f>
         <v>RAG の汚染</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="3" t="str">
         <f>'techniques (ja)'!C49</f>
         <v>マルウェアの埋め込み</v>
@@ -10328,7 +10398,7 @@
         <f>'techniques (ja)'!C68</f>
         <v>生成 AI</v>
       </c>
-      <c r="T6" s="30"/>
+      <c r="T6" s="32"/>
       <c r="U6" s="3" t="str">
         <f>'techniques (ja)'!C141</f>
         <v>ホワイト ボックス最適化</v>
@@ -10360,7 +10430,7 @@
         <f>'techniques (ja)'!C70</f>
         <v>なりすまし</v>
       </c>
-      <c r="P7" s="30" t="str">
+      <c r="P7" s="32" t="str">
         <f>'techniques (ja)'!C45</f>
         <v>LLM の幻覚の探索</v>
       </c>
@@ -10368,7 +10438,7 @@
         <f>'techniques (ja)'!C47</f>
         <v>ドメイン</v>
       </c>
-      <c r="T7" s="30" t="str">
+      <c r="T7" s="32" t="str">
         <f>'techniques (ja)'!C29</f>
         <v>プロキシー AI モデルの作成</v>
       </c>
@@ -10407,12 +10477,12 @@
         <f>'techniques (ja)'!C77</f>
         <v>LLM の脱獄</v>
       </c>
-      <c r="P8" s="30"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="3" t="str">
         <f>'techniques (ja)'!C97</f>
         <v>物理的な対抗手段</v>
       </c>
-      <c r="T8" s="30"/>
+      <c r="T8" s="32"/>
       <c r="U8" s="3" t="str">
         <f>'techniques (ja)'!C131</f>
         <v>レプリケーションによるプロキシーの学習</v>
@@ -10456,7 +10526,7 @@
         <f>'techniques (ja)'!C80</f>
         <v>LLM プロンプトの難読化</v>
       </c>
-      <c r="P9" s="30" t="str">
+      <c r="P9" s="32" t="str">
         <f>'techniques (ja)'!C46</f>
         <v>LLM のシステム情報の探索</v>
       </c>
@@ -10464,7 +10534,7 @@
         <f>'techniques (ja)'!C123</f>
         <v>特殊文字セット</v>
       </c>
-      <c r="T9" s="30"/>
+      <c r="T9" s="32"/>
       <c r="U9" s="3" t="str">
         <f>'techniques (ja)'!C136</f>
         <v>学習済みモデルの使用</v>
@@ -10489,12 +10559,12 @@
         <f>'techniques (ja)'!C83</f>
         <v>LLM からの信頼された出力コンポーネントの操作</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="3" t="str">
         <f>'techniques (ja)'!C125</f>
         <v>システム命令に関するキーワード</v>
       </c>
-      <c r="T10" s="30" t="str">
+      <c r="T10" s="32" t="str">
         <f>'techniques (ja)'!C85</f>
         <v>AI モデルの操作</v>
       </c>
@@ -10517,12 +10587,12 @@
         <f>'techniques (ja)'!C88</f>
         <v>マスカレード</v>
       </c>
-      <c r="P11" s="30"/>
+      <c r="P11" s="32"/>
       <c r="Q11" s="3" t="str">
         <f>'techniques (ja)'!C126</f>
         <v>システム プロンプト</v>
       </c>
-      <c r="T11" s="30"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="3" t="str">
         <f>'techniques (ja)'!C99</f>
         <v>AI モデルの汚染</v>
@@ -10573,31 +10643,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="Y7:Y11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="Y7:Y11"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MITRE_ATLAS-2025.11.xlsx
+++ b/MITRE_ATLAS-2025.11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MITRE_ATLAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD0301-AD76-4FF0-8ED5-6DFA26BE7E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DFA16-F16C-4997-9EE8-B4EE8716D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="3270" windowWidth="32660" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="techniques (ja)" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="951">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0035</t>
   </si>
   <si>
-    <t>Collection</t>
-  </si>
-  <si>
     <t>ATLAS</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0006</t>
   </si>
   <si>
-    <t>Reconnaissance</t>
-  </si>
-  <si>
     <t>AML.T0016.000</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.001</t>
   </si>
   <si>
-    <t>AI Attack Staging</t>
-  </si>
-  <si>
     <t>AML.T0043.002</t>
   </si>
   <si>
@@ -191,9 +182,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0067.000</t>
   </si>
   <si>
-    <t>Defense Evasion</t>
-  </si>
-  <si>
     <t>AML.T0075</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0075</t>
   </si>
   <si>
-    <t>Discovery</t>
-  </si>
-  <si>
     <t>AML.T0050</t>
   </si>
   <si>
@@ -458,9 +443,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0024</t>
   </si>
   <si>
-    <t>Exfiltration</t>
-  </si>
-  <si>
     <t>AML.T0025</t>
   </si>
   <si>
@@ -674,9 +656,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0061</t>
   </si>
   <si>
-    <t>Persistence</t>
-  </si>
-  <si>
     <t>AML.T0077</t>
   </si>
   <si>
@@ -1044,9 +1023,6 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0055</t>
-  </si>
-  <si>
-    <t>Credential Access</t>
   </si>
   <si>
     <t>AML.T0005.002</t>
@@ -2507,9 +2483,6 @@
 AI モデルの保存に一般的に使用される pickle ファイルなどのファイル形式には、任意のコード実行を可能にするエクスプロイトが含まれている可能性があります。これらのファイルは、コードの実行、新しいプロセスの作成、ネットワーク機能の確立に使用される可能性のある潜在的に安全でない呼び出しがないかスキャンする必要があります。敵対者は、モデルが破損したファイルに悪意のあるコードを埋め込む可能性があるため、スキャナーは完全にデシリアライズできないモデルでも動作できる必要があります。モデル アーティファクトと、モデルによって生成されるダウン ストリーム製品の両方に対して、既知の脆弱性がないかスキャンする必要があります。</t>
   </si>
   <si>
-    <t>Lateral Movement</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/tactics/AML.TA0015</t>
   </si>
   <si>
@@ -2885,9 +2858,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0093</t>
   </si>
   <si>
-    <t>Initial Access, Persistence</t>
-  </si>
-  <si>
     <t>AML.T0082</t>
   </si>
   <si>
@@ -2979,10 +2949,6 @@
     <rPh sb="17" eb="19">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>AI サービスからのデータ</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -3754,12 +3720,16 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>AI サービスのデータ</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3863,8 +3833,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3883,14 +3860,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3931,6 +3902,248 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3939,7 +4152,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4000,9 +4213,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4021,16 +4231,103 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4338,9 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4363,47 +4658,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>827</v>
+      <c r="A2" s="30" t="s">
+        <v>818</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="F2" s="28">
+        <v>820</v>
+      </c>
+      <c r="F2" s="27">
         <v>45930</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>45943</v>
       </c>
       <c r="H2" s="10" t="str">
@@ -4411,29 +4706,29 @@
         <v>永続化</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>198</v>
+      <c r="A3" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="28">
+        <v>193</v>
+      </c>
+      <c r="F3" s="27">
         <v>45224</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>45965</v>
       </c>
       <c r="H3" s="10" t="str">
@@ -4441,29 +4736,29 @@
         <v>実行、権限昇格</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>831</v>
+      <c r="A4" s="30" t="s">
+        <v>822</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="F4" s="28">
+        <v>824</v>
+      </c>
+      <c r="F4" s="27">
         <v>45930</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>45930</v>
       </c>
       <c r="H4" s="10" t="str">
@@ -4471,21 +4766,21 @@
         <v>収集</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>4</v>
@@ -4501,24 +4796,24 @@
         <v>収集</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="13">
         <v>44329</v>
@@ -4531,24 +4826,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="13">
         <v>44329</v>
@@ -4561,24 +4856,24 @@
         <v>影響</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="13">
         <v>44329</v>
@@ -4591,24 +4886,24 @@
         <v>AI モデルへのアクセス</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="13">
         <v>44329</v>
@@ -4621,24 +4916,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="13">
         <v>44329</v>
@@ -4651,24 +4946,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F11" s="13">
         <v>44329</v>
@@ -4681,24 +4976,24 @@
         <v>AI モデルへのアクセス</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="13">
         <v>44329</v>
@@ -4711,24 +5006,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="13">
         <v>44329</v>
@@ -4741,24 +5036,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>835</v>
+      <c r="A14" s="30" t="s">
+        <v>826</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>935</v>
+        <v>827</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>924</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F14" s="13">
         <v>45930</v>
@@ -4766,28 +5061,29 @@
       <c r="G14" s="13">
         <v>45930</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>55</v>
+      <c r="H14" s="10" t="str">
+        <f>'tactics (ja)'!$C$8</f>
+        <v>探索</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="F15" s="13">
         <v>44329</v>
@@ -4800,24 +5096,24 @@
         <v>偵察</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="13">
         <v>44329</v>
@@ -4830,24 +5126,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="13">
         <v>45224</v>
@@ -4860,24 +5156,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>838</v>
+      <c r="A18" s="30" t="s">
+        <v>829</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>930</v>
+        <v>830</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>919</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F18" s="13">
         <v>45958</v>
@@ -4885,28 +5181,29 @@
       <c r="G18" s="13">
         <v>45965</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>51</v>
+      <c r="H18" s="10" t="str">
+        <f>'tactics (ja)'!$C$7</f>
+        <v>防御策の回避</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F19" s="13">
         <v>44329</v>
@@ -4919,24 +5216,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>45</v>
+      <c r="A20" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="13">
         <v>44329</v>
@@ -4949,24 +5246,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>48</v>
+      <c r="A21" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="13">
         <v>45728</v>
@@ -4979,24 +5276,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="166" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>52</v>
+      <c r="A22" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13">
         <v>45761</v>
@@ -5009,24 +5306,24 @@
         <v>探索</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>56</v>
+      <c r="A23" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F23" s="13">
         <v>44985</v>
@@ -5039,24 +5336,24 @@
         <v>実行</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>59</v>
+      <c r="A24" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F24" s="13">
         <v>44329</v>
@@ -5069,24 +5366,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
+      <c r="A25" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F25" s="13">
         <v>45393</v>
@@ -5099,24 +5396,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>65</v>
+      <c r="A26" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F26" s="13">
         <v>45761</v>
@@ -5129,24 +5426,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>68</v>
+      <c r="A27" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F27" s="13">
         <v>44329</v>
@@ -5159,24 +5456,24 @@
         <v>影響</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>71</v>
+      <c r="A28" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F28" s="13">
         <v>44329</v>
@@ -5189,24 +5486,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>74</v>
+      <c r="A29" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F29" s="13">
         <v>44329</v>
@@ -5219,24 +5516,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>844</v>
+      <c r="A30" s="30" t="s">
+        <v>835</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F30" s="13">
         <v>45930</v>
@@ -5244,28 +5541,29 @@
       <c r="G30" s="13">
         <v>45943</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>336</v>
+      <c r="H30" s="10" t="str">
+        <f>'tactics (ja)'!$C$6</f>
+        <v>資格情報へのアクセス</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>77</v>
+      <c r="A31" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" s="13">
         <v>44329</v>
@@ -5278,24 +5576,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>841</v>
+      <c r="A32" s="30" t="s">
+        <v>832</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>909</v>
+        <v>833</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>950</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F32" s="13">
         <v>45930</v>
@@ -5303,28 +5601,29 @@
       <c r="G32" s="13">
         <v>45965</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>5</v>
+      <c r="H32" s="10" t="str">
+        <f>'tactics (ja)'!$C$4</f>
+        <v>収集</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>80</v>
+      <c r="A33" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F33" s="13">
         <v>44585</v>
@@ -5337,24 +5636,24 @@
         <v>収集</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>83</v>
+      <c r="A34" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F34" s="13">
         <v>44329</v>
@@ -5367,24 +5666,24 @@
         <v>収集</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>86</v>
+      <c r="A35" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F35" s="13">
         <v>44329</v>
@@ -5397,24 +5696,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>847</v>
+      <c r="A36" s="30" t="s">
+        <v>838</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>910</v>
+        <v>839</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>899</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F36" s="13">
         <v>45965</v>
@@ -5422,28 +5721,29 @@
       <c r="G36" s="13">
         <v>45966</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>51</v>
+      <c r="H36" s="10" t="str">
+        <f>'tactics (ja)'!$C$7</f>
+        <v>防御策の回避</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>89</v>
+      <c r="A37" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F37" s="13">
         <v>44329</v>
@@ -5456,24 +5756,24 @@
         <v>影響</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>92</v>
+      <c r="A38" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F38" s="13">
         <v>45224</v>
@@ -5486,24 +5786,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>95</v>
+      <c r="A39" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F39" s="13">
         <v>45224</v>
@@ -5516,24 +5816,24 @@
         <v>実行</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>850</v>
+      <c r="A40" s="30" t="s">
+        <v>841</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>911</v>
+        <v>842</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>900</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F40" s="13">
         <v>45930</v>
@@ -5541,28 +5841,29 @@
       <c r="G40" s="13">
         <v>45930</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>55</v>
+      <c r="H40" s="10" t="str">
+        <f>'tactics (ja)'!$C$8</f>
+        <v>探索</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>98</v>
+      <c r="A41" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F41" s="13">
         <v>44329</v>
@@ -5575,24 +5876,24 @@
         <v>探索</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>101</v>
+      <c r="A42" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F42" s="13">
         <v>44329</v>
@@ -5605,24 +5906,24 @@
         <v>探索</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>104</v>
+      <c r="A43" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F43" s="13">
         <v>44329</v>
@@ -5635,24 +5936,24 @@
         <v>探索</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>107</v>
+      <c r="A44" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F44" s="13">
         <v>45728</v>
@@ -5665,24 +5966,24 @@
         <v>探索</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>110</v>
+      <c r="A45" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F45" s="13">
         <v>45728</v>
@@ -5695,24 +5996,24 @@
         <v>探索</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>113</v>
+      <c r="A46" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F46" s="13">
         <v>45728</v>
@@ -5725,24 +6026,24 @@
         <v>探索</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>116</v>
+      <c r="A47" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F47" s="13">
         <v>45728</v>
@@ -5755,24 +6056,24 @@
         <v>探索</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>119</v>
+      <c r="A48" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F48" s="13">
         <v>45763</v>
@@ -5785,24 +6086,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>122</v>
+      <c r="A49" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F49" s="13">
         <v>45756</v>
@@ -5815,24 +6116,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>853</v>
+      <c r="A50" s="30" t="s">
+        <v>844</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>913</v>
+        <v>845</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F50" s="13">
         <v>45930</v>
@@ -5840,28 +6141,29 @@
       <c r="G50" s="13">
         <v>45930</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>55</v>
+      <c r="H50" s="10" t="str">
+        <f>'tactics (ja)'!$C$8</f>
+        <v>探索</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>125</v>
+      <c r="A51" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F51" s="13">
         <v>44329</v>
@@ -5874,24 +6176,24 @@
         <v>影響</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>128</v>
+      <c r="A52" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F52" s="13">
         <v>45728</v>
@@ -5904,24 +6206,24 @@
         <v>影響</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>131</v>
+      <c r="A53" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F53" s="13">
         <v>44585</v>
@@ -5934,24 +6236,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>134</v>
+      <c r="A54" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F54" s="13">
         <v>44329</v>
@@ -5964,24 +6266,24 @@
         <v>防御策の回避、影響、初期アクセス</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
-        <v>856</v>
+      <c r="A55" s="30" t="s">
+        <v>847</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>915</v>
+        <v>848</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>904</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F55" s="13">
         <v>45930</v>
@@ -5989,28 +6291,29 @@
       <c r="G55" s="13">
         <v>45930</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>140</v>
+      <c r="H55" s="10" t="str">
+        <f>'tactics (ja)'!$C$10</f>
+        <v>持出し</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>137</v>
+      <c r="A56" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F56" s="13">
         <v>44329</v>
@@ -6023,24 +6326,24 @@
         <v>持出し</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>141</v>
+      <c r="A57" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F57" s="13">
         <v>44329</v>
@@ -6053,24 +6356,24 @@
         <v>持出し</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>144</v>
+      <c r="A58" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F58" s="13">
         <v>44985</v>
@@ -6083,24 +6386,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>147</v>
+      <c r="A59" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F59" s="13">
         <v>44861</v>
@@ -6113,24 +6416,24 @@
         <v>影響</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>150</v>
+      <c r="A60" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F60" s="13">
         <v>44329</v>
@@ -6143,24 +6446,24 @@
         <v>持出し</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>153</v>
+      <c r="A61" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F61" s="13">
         <v>45224</v>
@@ -6173,24 +6476,24 @@
         <v>持出し</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>156</v>
+      <c r="A62" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F62" s="13">
         <v>45728</v>
@@ -6203,24 +6506,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>159</v>
+      <c r="A63" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F63" s="13">
         <v>45224</v>
@@ -6233,24 +6536,24 @@
         <v>影響</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>162</v>
+      <c r="A64" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F64" s="13">
         <v>44329</v>
@@ -6263,24 +6566,24 @@
         <v>AI モデルへのアクセス</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>165</v>
+      <c r="A65" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F65" s="13">
         <v>45728</v>
@@ -6293,24 +6596,24 @@
         <v>偵察</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
-        <v>859</v>
+      <c r="A66" s="30" t="s">
+        <v>850</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>916</v>
+        <v>852</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>905</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F66" s="13">
         <v>45961</v>
@@ -6318,28 +6621,29 @@
       <c r="G66" s="13">
         <v>45957</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>34</v>
+      <c r="H66" s="10" t="str">
+        <f>'tactics (ja)'!$C$16</f>
+        <v>偵察</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>860</v>
+      <c r="A67" s="30" t="s">
+        <v>851</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>917</v>
+        <v>853</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>906</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="F67" s="13">
         <v>45961</v>
@@ -6347,28 +6651,29 @@
       <c r="G67" s="13">
         <v>45965</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>44</v>
+      <c r="H67" s="10" t="str">
+        <f>'tactics (ja)'!$C$2</f>
+        <v>AI 攻撃のステージング</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>168</v>
+      <c r="A68" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F68" s="13">
         <v>45728</v>
@@ -6381,24 +6686,24 @@
         <v>探索</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>171</v>
+      <c r="A69" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F69" s="13">
         <v>44329</v>
@@ -6411,24 +6716,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>174</v>
+      <c r="A70" s="30" t="s">
+        <v>168</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F70" s="13">
         <v>45761</v>
@@ -6441,24 +6746,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>177</v>
+      <c r="A71" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F71" s="13">
         <v>45224</v>
@@ -6471,24 +6776,24 @@
         <v>実行</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>180</v>
+      <c r="A72" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F72" s="13">
         <v>44329</v>
@@ -6501,24 +6806,24 @@
         <v>持出し</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>183</v>
+      <c r="A73" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F73" s="13">
         <v>44329</v>
@@ -6531,24 +6836,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>186</v>
+      <c r="A74" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F74" s="13">
         <v>44329</v>
@@ -6561,24 +6866,24 @@
         <v>持出し</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>189</v>
+      <c r="A75" s="30" t="s">
+        <v>183</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F75" s="13">
         <v>44329</v>
@@ -6591,24 +6896,24 @@
         <v>偵察</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>192</v>
+      <c r="A76" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F76" s="13">
         <v>45224</v>
@@ -6621,24 +6926,24 @@
         <v>持出し</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>195</v>
+      <c r="A77" s="30" t="s">
+        <v>189</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F77" s="13">
         <v>45224</v>
@@ -6651,24 +6956,24 @@
         <v>防御策の回避、権限昇格</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>200</v>
+      <c r="A78" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F78" s="13">
         <v>45728</v>
@@ -6681,24 +6986,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>203</v>
+      <c r="A79" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F79" s="13">
         <v>45224</v>
@@ -6711,24 +7016,24 @@
         <v>実行</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>206</v>
+      <c r="A80" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F80" s="13">
         <v>45728</v>
@@ -6741,24 +7046,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>209</v>
+      <c r="A81" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F81" s="13">
         <v>45728</v>
@@ -6771,24 +7076,24 @@
         <v>永続化</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="210" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>213</v>
+      <c r="A82" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F82" s="13">
         <v>45762</v>
@@ -6801,24 +7106,24 @@
         <v>持出し</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>216</v>
+      <c r="A83" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F83" s="13">
         <v>45728</v>
@@ -6831,24 +7136,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>219</v>
+      <c r="A84" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F84" s="13">
         <v>45728</v>
@@ -6861,24 +7166,24 @@
         <v>影響</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>222</v>
+      <c r="A85" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F85" s="13">
         <v>44329</v>
@@ -6891,24 +7196,24 @@
         <v>AI 攻撃のステージング、永続化</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A86" s="29" t="s">
-        <v>865</v>
+      <c r="A86" s="30" t="s">
+        <v>856</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>918</v>
+        <v>857</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>907</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F86" s="13">
         <v>45957</v>
@@ -6916,28 +7221,29 @@
       <c r="G86" s="13">
         <v>45965</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>51</v>
+      <c r="H86" s="10" t="str">
+        <f>'tactics (ja)'!$C$7</f>
+        <v>防御策の回避</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>225</v>
+      <c r="A87" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F87" s="13">
         <v>44329</v>
@@ -6950,24 +7256,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>228</v>
+      <c r="A88" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F88" s="13">
         <v>45761</v>
@@ -6980,24 +7286,24 @@
         <v>防御策の回避</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
-        <v>868</v>
+      <c r="A89" s="30" t="s">
+        <v>859</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>919</v>
+        <v>860</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>908</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="F89" s="13">
         <v>45930</v>
@@ -7005,28 +7311,29 @@
       <c r="G89" s="13">
         <v>45930</v>
       </c>
-      <c r="H89" s="10" t="s">
-        <v>212</v>
+      <c r="H89" s="10" t="str">
+        <f>'tactics (ja)'!$C$14</f>
+        <v>永続化</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>231</v>
+      <c r="A90" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F90" s="13">
         <v>44329</v>
@@ -7039,24 +7346,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>234</v>
+      <c r="A91" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F91" s="13">
         <v>44329</v>
@@ -7069,24 +7376,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A92" s="29" t="s">
-        <v>871</v>
+      <c r="A92" s="30" t="s">
+        <v>862</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>920</v>
+        <v>863</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>909</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="F92" s="13">
         <v>45930</v>
@@ -7094,28 +7401,29 @@
       <c r="G92" s="13">
         <v>45930</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>212</v>
+      <c r="H92" s="10" t="str">
+        <f>'tactics (ja)'!$C$14</f>
+        <v>永続化</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
-        <v>237</v>
+      <c r="A93" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F93" s="13">
         <v>44329</v>
@@ -7128,24 +7436,24 @@
         <v>AI 攻撃のステージング、永続化</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
-        <v>874</v>
+      <c r="A94" s="30" t="s">
+        <v>865</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>921</v>
+        <v>866</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>910</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="F94" s="13">
         <v>45957</v>
@@ -7153,28 +7461,29 @@
       <c r="G94" s="13">
         <v>45965</v>
       </c>
-      <c r="H94" s="10" t="s">
-        <v>336</v>
+      <c r="H94" s="10" t="str">
+        <f>'tactics (ja)'!$C$6</f>
+        <v>資格情報へのアクセス</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>240</v>
+      <c r="A95" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F95" s="13">
         <v>44329</v>
@@ -7187,24 +7496,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>243</v>
+      <c r="A96" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F96" s="13">
         <v>45224</v>
@@ -7217,24 +7526,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
-        <v>246</v>
+      <c r="A97" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F97" s="13">
         <v>45728</v>
@@ -7247,24 +7556,24 @@
         <v>探索</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
-        <v>249</v>
+      <c r="A98" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F98" s="13">
         <v>44329</v>
@@ -7277,24 +7586,24 @@
         <v>AI モデルへのアクセス</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>252</v>
+      <c r="A99" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F99" s="13">
         <v>44329</v>
@@ -7307,24 +7616,24 @@
         <v>AI 攻撃のステージング、永続化</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>255</v>
+      <c r="A100" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F100" s="13">
         <v>44329</v>
@@ -7337,24 +7646,24 @@
         <v>永続化、リソースの開発</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>258</v>
+      <c r="A101" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F101" s="13">
         <v>44329</v>
@@ -7367,24 +7676,24 @@
         <v>偵察</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
-        <v>877</v>
+      <c r="A102" s="30" t="s">
+        <v>868</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F102" s="13">
         <v>45957</v>
@@ -7392,28 +7701,29 @@
       <c r="G102" s="13">
         <v>45965</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>55</v>
+      <c r="H102" s="10" t="str">
+        <f>'tactics (ja)'!$C$8</f>
+        <v>探索</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
-        <v>880</v>
+      <c r="A103" s="30" t="s">
+        <v>871</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F103" s="13">
         <v>45959</v>
@@ -7421,28 +7731,29 @@
       <c r="G103" s="13">
         <v>45967</v>
       </c>
-      <c r="H103" s="10" t="s">
-        <v>883</v>
+      <c r="H103" s="10" t="str">
+        <f>'tactics (ja)'!$C$12&amp;"、"&amp;'tactics (ja)'!$C$14</f>
+        <v>初期アクセス、永続化</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
-        <v>261</v>
+      <c r="A104" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F104" s="13">
         <v>45728</v>
@@ -7455,24 +7766,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
-        <v>264</v>
+      <c r="A105" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F105" s="13">
         <v>44329</v>
@@ -7485,24 +7796,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
-        <v>267</v>
+      <c r="A106" s="30" t="s">
+        <v>260</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F106" s="13">
         <v>45728</v>
@@ -7515,24 +7826,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A107" s="29" t="s">
-        <v>884</v>
+      <c r="A107" s="30" t="s">
+        <v>874</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F107" s="13">
         <v>45930</v>
@@ -7540,28 +7851,29 @@
       <c r="G107" s="13">
         <v>45930</v>
       </c>
-      <c r="H107" s="10" t="s">
-        <v>336</v>
+      <c r="H107" s="10" t="str">
+        <f>'tactics (ja)'!$C$6</f>
+        <v>資格情報へのアクセス</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="s">
-        <v>887</v>
+      <c r="A108" s="30" t="s">
+        <v>877</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F108" s="13">
         <v>45930</v>
@@ -7569,28 +7881,29 @@
       <c r="G108" s="13">
         <v>45930</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>5</v>
+      <c r="H108" s="10" t="str">
+        <f>'tactics (ja)'!$C$4</f>
+        <v>収集</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>270</v>
+      <c r="A109" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F109" s="13">
         <v>45728</v>
@@ -7603,24 +7916,24 @@
         <v>永続化</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>273</v>
+      <c r="A110" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F110" s="13">
         <v>45224</v>
@@ -7633,24 +7946,24 @@
         <v>影響</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
-        <v>276</v>
+      <c r="A111" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F111" s="13">
         <v>45728</v>
@@ -7663,24 +7976,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
-        <v>279</v>
+      <c r="A112" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F112" s="13">
         <v>45393</v>
@@ -7693,24 +8006,24 @@
         <v>コマンド＆コントロール</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
-        <v>282</v>
+      <c r="A113" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F113" s="13">
         <v>44329</v>
@@ -7723,24 +8036,24 @@
         <v>偵察</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>285</v>
+      <c r="A114" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F114" s="13">
         <v>44329</v>
@@ -7753,24 +8066,24 @@
         <v>偵察</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>288</v>
+      <c r="A115" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F115" s="13">
         <v>44329</v>
@@ -7783,24 +8096,24 @@
         <v>偵察</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
-        <v>890</v>
+      <c r="A116" s="30" t="s">
+        <v>880</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>891</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>925</v>
+        <v>881</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>914</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="F116" s="13">
         <v>45966</v>
@@ -7808,28 +8121,29 @@
       <c r="G116" s="13">
         <v>45967</v>
       </c>
-      <c r="H116" s="10" t="s">
-        <v>34</v>
+      <c r="H116" s="10" t="str">
+        <f>'tactics (ja)'!$C$16</f>
+        <v>偵察</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
-        <v>291</v>
+      <c r="A117" s="30" t="s">
+        <v>284</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F117" s="13">
         <v>44329</v>
@@ -7842,24 +8156,24 @@
         <v>偵察</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
-        <v>294</v>
+      <c r="A118" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F118" s="13">
         <v>45762</v>
@@ -7872,24 +8186,24 @@
         <v>持出し</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>297</v>
+      <c r="A119" s="30" t="s">
+        <v>290</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F119" s="13">
         <v>45224</v>
@@ -7902,24 +8216,24 @@
         <v>影響</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>300</v>
+      <c r="A120" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F120" s="13">
         <v>44329</v>
@@ -7932,24 +8246,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
-        <v>303</v>
+      <c r="A121" s="30" t="s">
+        <v>296</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F121" s="13">
         <v>44329</v>
@@ -7962,24 +8276,24 @@
         <v>影響</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>306</v>
+      <c r="A122" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F122" s="13">
         <v>45224</v>
@@ -7992,24 +8306,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>309</v>
+      <c r="A123" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F123" s="13">
         <v>45728</v>
@@ -8022,24 +8336,24 @@
         <v>探索</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>312</v>
+      <c r="A124" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F124" s="13">
         <v>45763</v>
@@ -8052,24 +8366,24 @@
         <v>リソースの開発</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>315</v>
+      <c r="A125" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F125" s="13">
         <v>45728</v>
@@ -8082,24 +8396,24 @@
         <v>探索</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
-        <v>318</v>
+      <c r="A126" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F126" s="13">
         <v>45728</v>
@@ -8112,24 +8426,24 @@
         <v>探索</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A127" s="10" t="s">
-        <v>321</v>
+      <c r="A127" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F127" s="13">
         <v>44329</v>
@@ -8142,24 +8456,24 @@
         <v>偵察</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A128" s="29" t="s">
-        <v>893</v>
+      <c r="A128" s="30" t="s">
+        <v>883</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F128" s="13">
         <v>45930</v>
@@ -8167,28 +8481,29 @@
       <c r="G128" s="13">
         <v>45930</v>
       </c>
-      <c r="H128" s="10" t="s">
-        <v>212</v>
+      <c r="H128" s="10" t="str">
+        <f>'tactics (ja)'!$C$14</f>
+        <v>永続化</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A129" s="29" t="s">
-        <v>896</v>
+      <c r="A129" s="30" t="s">
+        <v>886</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F129" s="13">
         <v>45930</v>
@@ -8196,28 +8511,29 @@
       <c r="G129" s="13">
         <v>45930</v>
       </c>
-      <c r="H129" s="10" t="s">
-        <v>55</v>
+      <c r="H129" s="10" t="str">
+        <f>'tactics (ja)'!$C$8</f>
+        <v>探索</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>324</v>
+      <c r="A130" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F130" s="13">
         <v>44329</v>
@@ -8230,24 +8546,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>327</v>
+      <c r="A131" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F131" s="13">
         <v>44329</v>
@@ -8260,24 +8576,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A132" s="29" t="s">
-        <v>899</v>
+      <c r="A132" s="30" t="s">
+        <v>889</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F132" s="13">
         <v>45965</v>
@@ -8285,28 +8601,29 @@
       <c r="G132" s="13">
         <v>45966</v>
       </c>
-      <c r="H132" s="10" t="s">
-        <v>51</v>
+      <c r="H132" s="10" t="str">
+        <f>'tactics (ja)'!$C$7</f>
+        <v>防御策の回避</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>330</v>
+      <c r="A133" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F133" s="13">
         <v>44329</v>
@@ -8319,24 +8636,24 @@
         <v>実行</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>333</v>
+      <c r="A134" s="30" t="s">
+        <v>326</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F134" s="13">
         <v>45224</v>
@@ -8349,24 +8666,24 @@
         <v>資格情報へのアクセス</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A135" s="29" t="s">
-        <v>902</v>
+      <c r="A135" s="30" t="s">
+        <v>892</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F135" s="13">
         <v>45957</v>
@@ -8374,28 +8691,29 @@
       <c r="G135" s="13">
         <v>45965</v>
       </c>
-      <c r="H135" s="10" t="s">
-        <v>789</v>
+      <c r="H135" s="10" t="str">
+        <f>'tactics (ja)'!$C$13</f>
+        <v>水平展開</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
-        <v>337</v>
+      <c r="A136" s="30" t="s">
+        <v>329</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F136" s="13">
         <v>44329</v>
@@ -8408,24 +8726,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>340</v>
+      <c r="A137" s="30" t="s">
+        <v>332</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F137" s="13">
         <v>44329</v>
@@ -8438,24 +8756,24 @@
         <v>実行</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>343</v>
+      <c r="A138" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F138" s="13">
         <v>45224</v>
@@ -8468,24 +8786,24 @@
         <v>影響</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>346</v>
+      <c r="A139" s="30" t="s">
+        <v>338</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F139" s="13">
         <v>44585</v>
@@ -8498,24 +8816,24 @@
         <v>初期アクセス</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A140" s="10" t="s">
-        <v>349</v>
+      <c r="A140" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F140" s="13">
         <v>44329</v>
@@ -8528,24 +8846,24 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
-        <v>352</v>
+      <c r="A141" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F141" s="13">
         <v>44329</v>
@@ -8558,7 +8876,7 @@
         <v>AI 攻撃のステージング</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8682,21 +9000,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H15 H93 H75 H120 H124 H73 H37" formula="1"/>
+    <ignoredError sqref="H15 H93 H75 H120 H124 H37" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8718,36 +9031,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F2" s="13">
         <v>44329</v>
@@ -8758,19 +9071,19 @@
     </row>
     <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F3" s="13">
         <v>44329</v>
@@ -8781,19 +9094,19 @@
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F4" s="13">
         <v>44585</v>
@@ -8804,19 +9117,19 @@
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F5" s="13">
         <v>45393</v>
@@ -8827,19 +9140,19 @@
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F6" s="13">
         <v>45224</v>
@@ -8850,19 +9163,19 @@
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F7" s="13">
         <v>44585</v>
@@ -8873,19 +9186,19 @@
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F8" s="13">
         <v>44585</v>
@@ -8896,19 +9209,19 @@
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F9" s="13">
         <v>44585</v>
@@ -8919,19 +9232,19 @@
     </row>
     <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F10" s="13">
         <v>44585</v>
@@ -8942,19 +9255,19 @@
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F11" s="13">
         <v>44585</v>
@@ -8965,19 +9278,19 @@
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F12" s="13">
         <v>44585</v>
@@ -8988,19 +9301,19 @@
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F13" s="13">
         <v>45957</v>
@@ -9011,19 +9324,19 @@
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F14" s="13">
         <v>44585</v>
@@ -9034,19 +9347,19 @@
     </row>
     <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F15" s="13">
         <v>45224</v>
@@ -9057,19 +9370,19 @@
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F16" s="13">
         <v>44585</v>
@@ -9080,19 +9393,19 @@
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F17" s="13">
         <v>44585</v>
@@ -9126,14 +9439,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9155,39 +9463,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>821</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>796</v>
+      <c r="E2" s="24" t="s">
+        <v>787</v>
       </c>
       <c r="F2" s="13">
         <v>45959</v>
@@ -9195,23 +9503,23 @@
       <c r="G2" s="13">
         <v>45966</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F3" s="13">
         <v>45728</v>
@@ -9223,19 +9531,19 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F4" s="13">
         <v>45028</v>
@@ -9247,19 +9555,19 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F5" s="13">
         <v>45728</v>
@@ -9271,19 +9579,19 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F6" s="13">
         <v>45028</v>
@@ -9295,19 +9603,19 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F7" s="13">
         <v>45028</v>
@@ -9319,19 +9627,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F8" s="13">
         <v>45028</v>
@@ -9343,19 +9651,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F9" s="13">
         <v>45303</v>
@@ -9367,19 +9675,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F10" s="13">
         <v>45028</v>
@@ -9391,19 +9699,19 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F11" s="13">
         <v>45728</v>
@@ -9415,19 +9723,19 @@
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F12" s="13">
         <v>45728</v>
@@ -9439,19 +9747,19 @@
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F13" s="13">
         <v>45728</v>
@@ -9463,19 +9771,19 @@
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>818</v>
+        <v>805</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>809</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F14" s="13">
         <v>45959</v>
@@ -9487,19 +9795,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F15" s="13">
         <v>45028</v>
@@ -9511,19 +9819,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F16" s="13">
         <v>45028</v>
@@ -9535,19 +9843,19 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F17" s="13">
         <v>45028</v>
@@ -9559,19 +9867,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F18" s="13">
         <v>45728</v>
@@ -9583,19 +9891,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>801</v>
+        <v>790</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>792</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F19" s="13">
         <v>45959</v>
@@ -9607,19 +9915,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F20" s="13">
         <v>45028</v>
@@ -9631,19 +9939,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F21" s="13">
         <v>45028</v>
@@ -9655,19 +9963,19 @@
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>817</v>
+        <v>795</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>808</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F22" s="13">
         <v>45959</v>
@@ -9679,19 +9987,19 @@
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>819</v>
+        <v>798</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>810</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F23" s="13">
         <v>45959</v>
@@ -9703,19 +10011,19 @@
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F24" s="13">
         <v>45028</v>
@@ -9727,19 +10035,19 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F25" s="13">
         <v>45028</v>
@@ -9751,19 +10059,19 @@
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F26" s="13">
         <v>45028</v>
@@ -9775,19 +10083,19 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F27" s="13">
         <v>45959</v>
@@ -9799,19 +10107,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F28" s="13">
         <v>45028</v>
@@ -9823,19 +10131,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F29" s="13">
         <v>45028</v>
@@ -9847,19 +10155,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F30" s="13">
         <v>45028</v>
@@ -9871,19 +10179,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F31" s="13">
         <v>45028</v>
@@ -9895,19 +10203,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F32" s="13">
         <v>45028</v>
@@ -9919,19 +10227,19 @@
     </row>
     <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F33" s="13">
         <v>45028</v>
@@ -9978,10 +10286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10004,670 +10312,824 @@
     <col min="16" max="16" width="20.7265625" style="2" customWidth="1"/>
     <col min="17" max="17" width="20.7265625" style="3" customWidth="1"/>
     <col min="18" max="18" width="20.7265625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.7265625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7265625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.7265625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="20.7265625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.7265625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.7265625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="20.7265625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="4"/>
+    <col min="19" max="19" width="20.7265625" style="28" customWidth="1"/>
+    <col min="20" max="20" width="20.7265625" style="58" customWidth="1"/>
+    <col min="21" max="21" width="20.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.7265625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="20.7265625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="20.7265625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="20.7265625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="20.7265625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="20.7265625" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="str">
-        <f>'tactics (ja)'!C16</f>
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="str">
+        <f>'tactics (ja)'!$C$16</f>
         <v>偵察</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="str">
-        <f>'tactics (ja)'!C17</f>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="str">
+        <f>'tactics (ja)'!$C$17</f>
         <v>リソースの開発</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="str">
-        <f>'tactics (ja)'!C12</f>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="str">
+        <f>'tactics (ja)'!$C$12</f>
         <v>初期アクセス</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="5" t="str">
-        <f>'tactics (ja)'!C3</f>
+        <f>'tactics (ja)'!$C$3</f>
         <v>AI モデルへのアクセス</v>
       </c>
-      <c r="H1" s="30" t="str">
-        <f>'tactics (ja)'!C9</f>
+      <c r="H1" s="29" t="str">
+        <f>'tactics (ja)'!$C$9</f>
         <v>実行</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="str">
-        <f>'tactics (ja)'!C14</f>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="str">
+        <f>'tactics (ja)'!$C$14</f>
         <v>永続化</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="5" t="str">
-        <f>'tactics (ja)'!C15</f>
+        <f>'tactics (ja)'!$C$15</f>
         <v>権限昇格</v>
       </c>
-      <c r="M1" s="30" t="str">
-        <f>'tactics (ja)'!C7</f>
+      <c r="M1" s="29" t="str">
+        <f>'tactics (ja)'!$C$7</f>
         <v>防御策の回避</v>
       </c>
-      <c r="N1" s="30"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="5" t="str">
-        <f>'tactics (ja)'!C6</f>
+        <f>'tactics (ja)'!$C$6</f>
         <v>資格情報へのアクセス</v>
       </c>
-      <c r="P1" s="30" t="str">
-        <f>'tactics (ja)'!C8</f>
+      <c r="P1" s="29" t="str">
+        <f>'tactics (ja)'!$C$8</f>
         <v>探索</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="S1" s="5" t="str">
-        <f>'tactics (ja)'!C4</f>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="54" t="str">
+        <f>'tactics (ja)'!$C$13</f>
+        <v>水平展開</v>
+      </c>
+      <c r="S1" s="56" t="str">
+        <f>'tactics (ja)'!$C$4</f>
         <v>収集</v>
       </c>
-      <c r="T1" s="30" t="str">
-        <f>'tactics (ja)'!C2</f>
+      <c r="T1" s="57"/>
+      <c r="U1" s="29" t="str">
+        <f>'tactics (ja)'!$C$2</f>
         <v>AI 攻撃のステージング</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="5" t="str">
-        <f>'tactics (ja)'!C5</f>
+      <c r="V1" s="29"/>
+      <c r="W1" s="5" t="str">
+        <f>'tactics (ja)'!$C$5</f>
         <v>コマンド＆コントロール</v>
       </c>
-      <c r="W1" s="30" t="str">
-        <f>'tactics (ja)'!C10</f>
+      <c r="X1" s="29" t="str">
+        <f>'tactics (ja)'!$C$10</f>
         <v>持出し</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30" t="str">
-        <f>'tactics (ja)'!C11</f>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29" t="str">
+        <f>'tactics (ja)'!$C$11</f>
         <v>影響</v>
       </c>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="str">
-        <f>'techniques (ja)'!C15</f>
+      <c r="AA1" s="29"/>
+    </row>
+    <row r="2" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="str">
+        <f>'techniques (ja)'!$C$15</f>
         <v>能動的なスキャン</v>
       </c>
-      <c r="C2" s="31" t="str">
-        <f>'techniques (ja)'!C12</f>
+      <c r="B2" s="38"/>
+      <c r="C2" s="42" t="str">
+        <f>'techniques (ja)'!$C$12</f>
         <v>インフラストラクチャの獲得</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f>'techniques (ja)'!C6</f>
+      <c r="D2" s="32" t="str">
+        <f>'techniques (ja)'!$C$6</f>
         <v>AI 開発のワークスペース</v>
       </c>
-      <c r="E2" s="31" t="str">
-        <f>'techniques (ja)'!C10</f>
+      <c r="E2" s="42" t="str">
+        <f>'techniques (ja)'!$C$10</f>
         <v>AI サプライ チェーンの侵害</v>
       </c>
-      <c r="F2" s="3" t="str">
-        <f>'techniques (ja)'!C9</f>
+      <c r="F2" s="32" t="str">
+        <f>'techniques (ja)'!$C$9</f>
         <v>AI ソフトウェア</v>
       </c>
-      <c r="G2" s="4" t="str">
-        <f>'techniques (ja)'!C8</f>
+      <c r="G2" s="44" t="str">
+        <f>'techniques (ja)'!$C$8</f>
         <v>AI モデルの推論 API へのアクセス</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <f>'techniques (ja)'!C23</f>
+      <c r="H2" s="31" t="str">
+        <f>'techniques (ja)'!$C$3</f>
+        <v>AI エージェントのツールの起動</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="46" t="str">
+        <f>'techniques (ja)'!$C$2</f>
+        <v>AI エージェントのコンテキストの汚染</v>
+      </c>
+      <c r="K2" s="32" t="str">
+        <f>'techniques (ja)'!$C$89</f>
+        <v>記憶</v>
+      </c>
+      <c r="L2" s="44" t="str">
+        <f>'techniques (ja)'!$C$3</f>
+        <v>AI エージェントのツールの起動</v>
+      </c>
+      <c r="M2" s="31" t="str">
+        <f>'techniques (ja)'!$C$26</f>
+        <v>AI モデルの破損</v>
+      </c>
+      <c r="O2" s="55" t="str">
+        <f>'techniques (ja)'!$C$30</f>
+        <v>AI エージェントの設定からの資格情報</v>
+      </c>
+      <c r="P2" s="31" t="str">
+        <f>'techniques (ja)'!$C$22</f>
+        <v>クラウド サービスの探索</v>
+      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="55" t="str">
+        <f>'techniques (ja)'!C135</f>
+        <v>代替認証情報の使用</v>
+      </c>
+      <c r="S2" s="59" t="str">
+        <f>'techniques (ja)'!$C$5</f>
+        <v>AI アーティファクトの収集</v>
+      </c>
+      <c r="U2" s="42" t="str">
+        <f>'techniques (ja)'!$C$28</f>
+        <v>敵対的データの作成</v>
+      </c>
+      <c r="V2" s="32" t="str">
+        <f>'techniques (ja)'!$C$19</f>
+        <v>ブラック ボックス最適化</v>
+      </c>
+      <c r="W2" s="44" t="str">
+        <f>'techniques (ja)'!$C$112</f>
+        <v>リバース シェル</v>
+      </c>
+      <c r="X2" s="31" t="str">
+        <f>'techniques (ja)'!$C$55</f>
+        <v>AI エージェントのツールの起動による流出</v>
+      </c>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="31" t="str">
+        <f>'techniques (ja)'!$C$27</f>
+        <v>コスト ハーベスティング</v>
+      </c>
+      <c r="AA2" s="38"/>
+    </row>
+    <row r="3" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="str">
+        <f>'techniques (ja)'!$C$65</f>
+        <v>RAG インデックス化された対象の収集</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="34" t="str">
+        <f>'techniques (ja)'!$C$24</f>
+        <v>消費者向けハードウェア</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="34" t="str">
+        <f>'techniques (ja)'!$C$31</f>
+        <v>データ</v>
+      </c>
+      <c r="G3" s="45" t="str">
+        <f>'techniques (ja)'!$C$11</f>
+        <v>AI 対応の製品やサービス</v>
+      </c>
+      <c r="H3" s="33" t="str">
+        <f>'techniques (ja)'!$C$23</f>
         <v>コマンドおよびスクリプト インタープリター</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>'techniques (ja)'!C81</f>
+      <c r="I3" s="40"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="34" t="str">
+        <f>'techniques (ja)'!$C$128</f>
+        <v>スレッド</v>
+      </c>
+      <c r="L3" s="45" t="str">
+        <f>'techniques (ja)'!$C$77</f>
+        <v>LLM の脱獄</v>
+      </c>
+      <c r="M3" s="33" t="str">
+        <f>'techniques (ja)'!$C$54</f>
+        <v>AI モデルの回避</v>
+      </c>
+      <c r="O3" s="45" t="str">
+        <f>'techniques (ja)'!$C$94</f>
+        <v>OS 資格情報の出力</v>
+      </c>
+      <c r="P3" s="47" t="str">
+        <f>'techniques (ja)'!$C$40</f>
+        <v>AI エージェントの設定の探索</v>
+      </c>
+      <c r="Q3" s="34" t="str">
+        <f>'techniques (ja)'!$C$14</f>
+        <v>起動トリガー</v>
+      </c>
+      <c r="S3" s="48" t="str">
+        <f>'techniques (ja)'!$C$32</f>
+        <v>AI サービスのデータ</v>
+      </c>
+      <c r="T3" s="60" t="str">
+        <f>'techniques (ja)'!$C$4</f>
+        <v>AI エージェントのツール</v>
+      </c>
+      <c r="U3" s="43"/>
+      <c r="V3" s="34" t="str">
+        <f>'techniques (ja)'!$C$20</f>
+        <v>ブラック ボックス転送</v>
+      </c>
+      <c r="X3" s="48" t="str">
+        <f>'techniques (ja)'!$C$56</f>
+        <v>AI の推論 API による流出</v>
+      </c>
+      <c r="Y3" s="34" t="str">
+        <f>'techniques (ja)'!$C$60</f>
+        <v>AI モデルの抽出</v>
+      </c>
+      <c r="Z3" s="33" t="str">
+        <f>'techniques (ja)'!$C$37</f>
+        <v>AI サービスへの運用妨害</v>
+      </c>
+      <c r="AA3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="str">
+        <f>'techniques (ja)'!$C$66</f>
+        <v>被害者のアイデンティティー情報の収集</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="43" t="str">
+        <f>'techniques (ja)'!$C$13</f>
+        <v>公開されている AI アーティファクトの獲得</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>'techniques (ja)'!$C$35</f>
+        <v>データセット</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="34" t="str">
+        <f>'techniques (ja)'!$C$69</f>
+        <v>ハードウェア</v>
+      </c>
+      <c r="G4" s="45" t="str">
+        <f>'techniques (ja)'!$C$64</f>
+        <v>AI モデルへの完全なアクセス</v>
+      </c>
+      <c r="H4" s="43" t="str">
+        <f>'techniques (ja)'!$C$79</f>
+        <v>LLM プロンプト インジェクション</v>
+      </c>
+      <c r="I4" s="34" t="str">
+        <f>'techniques (ja)'!$C$39</f>
+        <v>直接（インジェクション）</v>
+      </c>
+      <c r="J4" s="33" t="str">
+        <f>'techniques (ja)'!$C$81</f>
         <v>LLM プロンプトの自己複製</v>
       </c>
-      <c r="L2" s="4" t="str">
-        <f>'techniques (ja)'!C77</f>
-        <v>LLM の脱獄</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <f>'techniques (ja)'!C26</f>
-        <v>AI モデルの破損</v>
-      </c>
-      <c r="O2" s="6" t="str">
+      <c r="K4" s="34"/>
+      <c r="M4" s="33" t="str">
+        <f>'techniques (ja)'!$C$36</f>
+        <v>LLM への指示の遅延実行</v>
+      </c>
+      <c r="N4" s="34" t="str">
+        <f>'techniques (ja)'!$C$132</f>
+        <v>トリガー</v>
+      </c>
+      <c r="O4" s="45" t="str">
+        <f>'techniques (ja)'!$C$107</f>
+        <v>RAG 資格情報のハーベスティング</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="34" t="str">
+        <f>'techniques (ja)'!$C$50</f>
+        <v>組込み知識</v>
+      </c>
+      <c r="S4" s="48"/>
+      <c r="T4" s="60" t="str">
+        <f>'techniques (ja)'!$C$108</f>
+        <v>RAG データベース</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="34" t="str">
+        <f>'techniques (ja)'!$C$73</f>
+        <v>バックドア トリガーの挿入</v>
+      </c>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="34" t="str">
+        <f>'techniques (ja)'!$C$72</f>
+        <v>学習データのメンバーシップ推論</v>
+      </c>
+      <c r="Z4" s="33" t="str">
+        <f>'techniques (ja)'!$C$51</f>
+        <v>AI モデルの整合性の侵害</v>
+      </c>
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="str">
+        <f>'techniques (ja)'!C113</f>
+        <v>アプリケーション リポジトリの検索</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="34" t="str">
+        <f>'techniques (ja)'!$C$91</f>
+        <v>モデル（注: 原文では Models）</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="34" t="str">
+        <f>'techniques (ja)'!$C$90</f>
+        <v>モデル（注: 原文では Model）</v>
+      </c>
+      <c r="G5" s="45" t="str">
+        <f>'techniques (ja)'!$C$98</f>
+        <v>物理環境へのアクセス</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="34" t="str">
+        <f>'techniques (ja)'!$C$71</f>
+        <v>間接（インジェクション）</v>
+      </c>
+      <c r="J5" s="48" t="str">
+        <f>'techniques (ja)'!$C$85</f>
+        <v>AI モデルの操作</v>
+      </c>
+      <c r="K5" s="34" t="str">
+        <f>'techniques (ja)'!$C$93</f>
+        <v>AI モデルのアーキテクチャの改変</v>
+      </c>
+      <c r="M5" s="50" t="str">
+        <f>'techniques (ja)'!$C$62</f>
+        <v>偽 RAG エントリ インジェクション</v>
+      </c>
+      <c r="N5" s="34" t="str">
+        <f>'techniques (ja)'!$C$21</f>
+        <v>引用</v>
+      </c>
+      <c r="O5" s="45" t="str">
         <f>'techniques (ja)'!C134</f>
         <v>セキュリティ上問題のある資格情報</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>'techniques (ja)'!C22</f>
-        <v>クラウド サービスの探索</v>
-      </c>
-      <c r="S2" s="4" t="str">
-        <f>'techniques (ja)'!C5</f>
-        <v>AI アーティファクトの収集</v>
-      </c>
-      <c r="T2" s="32" t="str">
-        <f>'techniques (ja)'!C28</f>
-        <v>敵対的データの作成</v>
-      </c>
-      <c r="U2" s="3" t="str">
-        <f>'techniques (ja)'!C19</f>
-        <v>ブラック ボックス最適化</v>
-      </c>
-      <c r="V2" s="4" t="str">
-        <f>'techniques (ja)'!C112</f>
-        <v>リバース シェル</v>
-      </c>
-      <c r="W2" s="32" t="str">
-        <f>'techniques (ja)'!C56</f>
-        <v>AI の推論 API による流出</v>
-      </c>
-      <c r="X2" s="3" t="str">
-        <f>'techniques (ja)'!C60</f>
-        <v>AI モデルの抽出</v>
-      </c>
-      <c r="Y2" s="2" t="str">
-        <f>'techniques (ja)'!C27</f>
-        <v>コスト ハーベスティング</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="str">
-        <f>'techniques (ja)'!C65</f>
-        <v>RAG インデックス化された対象の収集</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="3" t="str">
-        <f>'techniques (ja)'!C24</f>
-        <v>消費者向けハードウェア</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="3" t="str">
-        <f>'techniques (ja)'!C31</f>
-        <v>データ</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>'techniques (ja)'!C11</f>
-        <v>AI 対応の製品やサービス</v>
-      </c>
-      <c r="H3" s="2" t="e">
-        <f>'techniques (ja)'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="31" t="str">
-        <f>'techniques (ja)'!C85</f>
-        <v>AI モデルの操作</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f>'techniques (ja)'!C93</f>
-        <v>AI モデルのアーキテクチャの改変</v>
-      </c>
-      <c r="L3" s="4" t="e">
-        <f>'techniques (ja)'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <f>'techniques (ja)'!C54</f>
-        <v>AI モデルの回避</v>
-      </c>
-      <c r="P3" s="2" t="str">
-        <f>'techniques (ja)'!C41</f>
-        <v>AI アーティファクトの探索</v>
-      </c>
-      <c r="S3" s="4" t="str">
-        <f>'techniques (ja)'!C33</f>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="34" t="str">
+        <f>'techniques (ja)'!$C$129</f>
+        <v>ツールの定義</v>
+      </c>
+      <c r="S5" s="49" t="str">
+        <f>'techniques (ja)'!$C$33</f>
         <v>情報リポジトリのデータ</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="3" t="str">
-        <f>'techniques (ja)'!C20</f>
-        <v>ブラック ボックス転送</v>
-      </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="3" t="str">
-        <f>'techniques (ja)'!C72</f>
-        <v>学習データのメンバーシップ推論</v>
-      </c>
-      <c r="Y3" s="2" t="str">
-        <f>'techniques (ja)'!C37</f>
-        <v>AI サービスへの運用妨害</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
-        <f>'techniques (ja)'!C113</f>
-        <v>アプリケーション リポジトリの検索</v>
-      </c>
-      <c r="C4" s="31" t="str">
-        <f>'techniques (ja)'!C13</f>
-        <v>公開されている AI アーティファクトの獲得</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>'techniques (ja)'!C35</f>
-        <v>データセット</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="3" t="str">
-        <f>'techniques (ja)'!C69</f>
-        <v>ハードウェア</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>'techniques (ja)'!C64</f>
-        <v>AI モデルへの完全なアクセス</v>
-      </c>
-      <c r="H4" s="32" t="str">
-        <f>'techniques (ja)'!C79</f>
-        <v>LLM プロンプト インジェクション</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>'techniques (ja)'!C39</f>
-        <v>直接（インジェクション）</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="3" t="str">
-        <f>'techniques (ja)'!C99</f>
-        <v>AI モデルの汚染</v>
-      </c>
-      <c r="M4" s="32" t="str">
-        <f>'techniques (ja)'!C62</f>
-        <v>偽 RAG エントリ インジェクション</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <f>'techniques (ja)'!C21</f>
-        <v>引用</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f>'techniques (ja)'!C42</f>
-        <v>AI モデル ファミリーの探索</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f>'techniques (ja)'!C34</f>
-        <v>ローカル システムのデータ</v>
-      </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="3" t="str">
-        <f>'techniques (ja)'!C73</f>
-        <v>バックドア トリガーの挿入</v>
-      </c>
-      <c r="W4" s="32"/>
-      <c r="X4" s="3" t="str">
-        <f>'techniques (ja)'!C74</f>
+      <c r="U5" s="43"/>
+      <c r="V5" s="34" t="str">
+        <f>'techniques (ja)'!$C$87</f>
+        <v>手動による変更</v>
+      </c>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="34" t="str">
+        <f>'techniques (ja)'!$C$74</f>
         <v>AI モデルの反転</v>
       </c>
-      <c r="Y4" s="2" t="str">
-        <f>'techniques (ja)'!C51</f>
-        <v>AI モデルの整合性の侵害</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
+      <c r="Z5" s="33" t="str">
+        <f>'techniques (ja)'!$C$52</f>
+        <v>データセットの整合性の侵害</v>
+      </c>
+      <c r="AA5" s="34" t="str">
+        <f>'techniques (ja)'!$C$84</f>
+        <v>悪意のあるパッケージ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="str">
         <f>'techniques (ja)'!C114</f>
         <v>AI の脆弱性に関する公開されている分析結果の検索</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="3" t="str">
-        <f>'techniques (ja)'!C91</f>
-        <v>モデル（注: 原文では Models）</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="3" t="str">
-        <f>'techniques (ja)'!C90</f>
-        <v>モデル（注: 原文では Model）</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>'techniques (ja)'!C98</f>
-        <v>物理環境へのアクセス</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="3" t="str">
-        <f>'techniques (ja)'!C71</f>
-        <v>間接（インジェクション）</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>'techniques (ja)'!C100</f>
-        <v>学習データの汚染</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="3" t="str">
-        <f>'techniques (ja)'!C25</f>
+      <c r="B6" s="40"/>
+      <c r="C6" s="33" t="str">
+        <f>'techniques (ja)'!$C$38</f>
+        <v>機能の開発</v>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>'techniques (ja)'!$C$17</f>
+        <v>AI への敵対的攻撃</v>
+      </c>
+      <c r="E6" s="33" t="str">
+        <f>'techniques (ja)'!$C$48</f>
+        <v>ドライブ バイによる侵害</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="H6" s="33" t="str">
+        <f>'techniques (ja)'!$C$137</f>
+        <v>ユーザーによる実行</v>
+      </c>
+      <c r="I6" s="34" t="str">
+        <f>'techniques (ja)'!$C$133</f>
+        <v>安全でない AI アーティファクト</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="34" t="str">
+        <f>'techniques (ja)'!$C$99</f>
+        <v>AI モデルの汚染</v>
+      </c>
+      <c r="M6" s="51"/>
+      <c r="N6" s="34" t="str">
+        <f>'techniques (ja)'!$C$25</f>
         <v>コンテナ レジストリ</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f>'techniques (ja)'!C43</f>
-        <v>AI モデルのオントロジーの探索</v>
-      </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="3" t="str">
-        <f>'techniques (ja)'!C87</f>
-        <v>手動による変更</v>
-      </c>
-      <c r="W5" s="2" t="str">
-        <f>'techniques (ja)'!C57</f>
+      <c r="P6" s="33" t="str">
+        <f>'techniques (ja)'!$C$41</f>
+        <v>AI アーティファクトの探索</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="S6" s="49" t="str">
+        <f>'techniques (ja)'!$C$34</f>
+        <v>ローカル システムのデータ</v>
+      </c>
+      <c r="U6" s="43"/>
+      <c r="V6" s="34" t="str">
+        <f>'techniques (ja)'!$C$141</f>
+        <v>ホワイト ボックス最適化</v>
+      </c>
+      <c r="X6" s="33" t="str">
+        <f>'techniques (ja)'!$C$57</f>
         <v>サイバー手段による流出</v>
       </c>
-      <c r="Y5" s="2" t="str">
-        <f>'techniques (ja)'!C52</f>
-        <v>データセットの整合性の侵害</v>
-      </c>
-      <c r="Z5" s="3" t="str">
-        <f>'techniques (ja)'!C84</f>
-        <v>悪意のあるパッケージ</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="str">
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="33" t="str">
+        <f>'techniques (ja)'!$C$54</f>
+        <v>AI モデルの回避</v>
+      </c>
+      <c r="AA6" s="34"/>
+    </row>
+    <row r="7" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="str">
         <f>'techniques (ja)'!C115</f>
         <v>公開されている技術データベースの検索</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f>'techniques (ja)'!C75</f>
+      <c r="B7" s="34" t="str">
+        <f>'techniques (ja)'!$C$75</f>
         <v>定期刊行物やカンファレンス議事録</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f>'techniques (ja)'!C38</f>
-        <v>機能の開発</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>'techniques (ja)'!C17</f>
-        <v>AI への敵対的攻撃</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>'techniques (ja)'!C48</f>
-        <v>ドライブ バイによる侵害</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f>'techniques (ja)'!C137</f>
-        <v>ユーザーによる実行</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f>'techniques (ja)'!C133</f>
-        <v>安全でない AI アーティファクト</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>'techniques (ja)'!C109</f>
+      <c r="C7" s="33" t="str">
+        <f>'techniques (ja)'!$C$53</f>
+        <v>アカウントの確立</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="33" t="str">
+        <f>'techniques (ja)'!$C$54</f>
+        <v>AI モデルの回避</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="J7" s="33" t="str">
+        <f>'techniques (ja)'!$C$109</f>
         <v>RAG の汚染</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="3" t="str">
-        <f>'techniques (ja)'!C49</f>
+      <c r="M7" s="52"/>
+      <c r="N7" s="34" t="str">
+        <f>'techniques (ja)'!$C$49</f>
         <v>マルウェアの埋め込み</v>
       </c>
-      <c r="P6" s="2" t="str">
-        <f>'techniques (ja)'!C44</f>
+      <c r="P7" s="33" t="str">
+        <f>'techniques (ja)'!$C$42</f>
+        <v>AI モデル ファミリーの探索</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="U7" s="43" t="str">
+        <f>'techniques (ja)'!$C$29</f>
+        <v>プロキシー AI モデルの作成</v>
+      </c>
+      <c r="V7" s="34" t="str">
+        <f>'techniques (ja)'!$C$130</f>
+        <v>収集した AI アーティファクトによるプロキシーの学習</v>
+      </c>
+      <c r="X7" s="33" t="str">
+        <f>'techniques (ja)'!$C$61</f>
+        <v>LLM システム プロンプトの抽出</v>
+      </c>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="43" t="str">
+        <f>'techniques (ja)'!$C$59</f>
+        <v>外部への危害</v>
+      </c>
+      <c r="AA7" s="34" t="str">
+        <f>'techniques (ja)'!$C$7</f>
+        <v>AI 知的財産の窃取</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34" t="str">
+        <f>'techniques (ja)'!$C$101</f>
+        <v>プレプリント リポジトリ</v>
+      </c>
+      <c r="C8" s="33" t="str">
+        <f>'techniques (ja)'!$C$78</f>
+        <v>LLM プロンプトの作成</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="33" t="str">
+        <f>'techniques (ja)'!$C$58</f>
+        <v>公開アプリケーションの悪用</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="J8" s="33" t="str">
+        <f>'techniques (ja)'!$C$92</f>
+        <v>AI エージェントの設定の改変</v>
+      </c>
+      <c r="M8" s="33" t="str">
+        <f>'techniques (ja)'!$C$70</f>
+        <v>なりすまし</v>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f>'techniques (ja)'!$C$43</f>
+        <v>AI モデルのオントロジーの探索</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="34" t="str">
+        <f>'techniques (ja)'!$C$131</f>
+        <v>レプリケーションによるプロキシーの学習</v>
+      </c>
+      <c r="X8" s="33" t="str">
+        <f>'techniques (ja)'!$C$76</f>
+        <v>LLM からのデータ漏洩</v>
+      </c>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="34" t="str">
+        <f>'techniques (ja)'!$C$63</f>
+        <v>財務的損害</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34" t="str">
+        <f>'techniques (ja)'!$C$127</f>
+        <v>技術ブログ</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f>'techniques (ja)'!$C$95</f>
+        <v>機能の獲得</v>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>'techniques (ja)'!$C$16</f>
+        <v>AI への敵対的攻撃の実装</v>
+      </c>
+      <c r="E9" s="33" t="str">
+        <f>'techniques (ja)'!$C$96</f>
+        <v>フィッシング</v>
+      </c>
+      <c r="F9" s="34" t="str">
+        <f>'techniques (ja)'!$C$122</f>
+        <v>LLM ソーシャル エンジニアリングによるスピア フィッシング</v>
+      </c>
+      <c r="J9" s="33" t="str">
+        <f>'techniques (ja)'!$C$103</f>
+        <v>公開アプリケーション経由のプロンプト浸透</v>
+      </c>
+      <c r="M9" s="33" t="str">
+        <f>'techniques (ja)'!$C$77</f>
+        <v>LLM の脱獄</v>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f>'techniques (ja)'!$C$44</f>
         <v>AI モデルの出力の探索</v>
       </c>
-      <c r="Q6" s="3" t="str">
-        <f>'techniques (ja)'!C68</f>
+      <c r="Q9" s="34" t="str">
+        <f>'techniques (ja)'!$C$68</f>
         <v>生成 AI</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="3" t="str">
-        <f>'techniques (ja)'!C141</f>
-        <v>ホワイト ボックス最適化</v>
-      </c>
-      <c r="W6" s="2" t="str">
-        <f>'techniques (ja)'!C61</f>
-        <v>LLM システム プロンプトの抽出</v>
-      </c>
-      <c r="Y6" s="2" t="str">
-        <f>'techniques (ja)'!C54</f>
-        <v>AI モデルの回避</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="3" t="str">
-        <f>'techniques (ja)'!C101</f>
-        <v>プレプリント リポジトリ</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>'techniques (ja)'!C53</f>
-        <v>アカウントの確立</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>'techniques (ja)'!C54</f>
-        <v>AI モデルの回避</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <f>'techniques (ja)'!C70</f>
-        <v>なりすまし</v>
-      </c>
-      <c r="P7" s="32" t="str">
-        <f>'techniques (ja)'!C45</f>
+      <c r="U9" s="43"/>
+      <c r="V9" s="34" t="str">
+        <f>'techniques (ja)'!$C$136</f>
+        <v>学習済みモデルの使用</v>
+      </c>
+      <c r="X9" s="33" t="str">
+        <f>'techniques (ja)'!$C$82</f>
+        <v>LLM 応答のレンダリング</v>
+      </c>
+      <c r="Y9" s="34" t="str">
+        <f>'techniques (ja)'!$C$118</f>
+        <v>サーバーレス</v>
+      </c>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="34" t="str">
+        <f>'techniques (ja)'!$C$110</f>
+        <v>風評被害</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="str">
+        <f>'techniques (ja)'!$C$116</f>
+        <v>公開 Web サイト/ドメインの検索</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="34" t="str">
+        <f>'techniques (ja)'!$C$120</f>
+        <v>ソフトウェア ツール</v>
+      </c>
+      <c r="E10" s="33" t="str">
+        <f>'techniques (ja)'!$C$103</f>
+        <v>公開アプリケーション経由のプロンプト浸透</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="J10" s="33" t="str">
+        <f>'techniques (ja)'!$C$109</f>
+        <v>RAG の汚染</v>
+      </c>
+      <c r="M10" s="33" t="str">
+        <f>'techniques (ja)'!$C$80</f>
+        <v>LLM プロンプトの難読化</v>
+      </c>
+      <c r="P10" s="53" t="str">
+        <f>'techniques (ja)'!$C$45</f>
         <v>LLM の幻覚の探索</v>
       </c>
-      <c r="Q7" s="3" t="str">
-        <f>'techniques (ja)'!C47</f>
+      <c r="Q10" s="34" t="str">
+        <f>'techniques (ja)'!$C$47</f>
         <v>ドメイン</v>
       </c>
-      <c r="T7" s="32" t="str">
-        <f>'techniques (ja)'!C29</f>
-        <v>プロキシー AI モデルの作成</v>
-      </c>
-      <c r="U7" s="3" t="str">
-        <f>'techniques (ja)'!C130</f>
-        <v>収集した AI アーティファクトによるプロキシーの学習</v>
-      </c>
-      <c r="W7" s="2" t="str">
-        <f>'techniques (ja)'!C76</f>
-        <v>LLM からのデータ漏洩</v>
-      </c>
-      <c r="Y7" s="31" t="str">
-        <f>'techniques (ja)'!C59</f>
-        <v>外部への危害</v>
-      </c>
-      <c r="Z7" s="3" t="str">
-        <f>'techniques (ja)'!C7</f>
-        <v>AI 知的財産の窃取</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="3" t="str">
-        <f>'techniques (ja)'!C127</f>
-        <v>技術ブログ</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>'techniques (ja)'!C78</f>
-        <v>LLM プロンプトの作成</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>'techniques (ja)'!C58</f>
-        <v>公開アプリケーションの悪用</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f>'techniques (ja)'!C77</f>
-        <v>LLM の脱獄</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="3" t="str">
-        <f>'techniques (ja)'!C97</f>
+      <c r="U10" s="33" t="str">
+        <f>'techniques (ja)'!$C$67</f>
+        <v>ディープフェイクの生成</v>
+      </c>
+      <c r="V10" s="34"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="34" t="str">
+        <f>'techniques (ja)'!$C$119</f>
+        <v>社会的損害</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="str">
+        <f>'techniques (ja)'!$C$117</f>
+        <v>被害者が所有するウェブサイトの検索</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="33" t="str">
+        <f>'techniques (ja)'!$C$100</f>
+        <v>学習データの汚染</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="33" t="str">
+        <f>'techniques (ja)'!$C$139</f>
+        <v>有効なアカウント</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="M11" s="33" t="str">
+        <f>'techniques (ja)'!$C$83</f>
+        <v>LLM からの信頼された出力コンポーネントの操作</v>
+      </c>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="34" t="str">
+        <f>'techniques (ja)'!$C$97</f>
         <v>物理的な対抗手段</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="3" t="str">
-        <f>'techniques (ja)'!C131</f>
-        <v>レプリケーションによるプロキシーの学習</v>
-      </c>
-      <c r="W8" s="2" t="str">
-        <f>'techniques (ja)'!C82</f>
-        <v>LLM 応答のレンダリング</v>
-      </c>
-      <c r="X8" s="3" t="str">
-        <f>'techniques (ja)'!C118</f>
-        <v>サーバーレス</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="3" t="str">
-        <f>'techniques (ja)'!C63</f>
-        <v>財務的損害</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
-        <f>'techniques (ja)'!C117</f>
-        <v>被害者が所有するウェブサイトの検索</v>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>'techniques (ja)'!C95</f>
-        <v>機能の獲得</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>'techniques (ja)'!C16</f>
-        <v>AI への敵対的攻撃の実装</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>'techniques (ja)'!C96</f>
-        <v>フィッシング</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>'techniques (ja)'!C122</f>
-        <v>LLM ソーシャル エンジニアリングによるスピア フィッシング</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f>'techniques (ja)'!C80</f>
-        <v>LLM プロンプトの難読化</v>
-      </c>
-      <c r="P9" s="32" t="str">
-        <f>'techniques (ja)'!C46</f>
+      <c r="U11" s="48" t="str">
+        <f>'techniques (ja)'!$C$85</f>
+        <v>AI モデルの操作</v>
+      </c>
+      <c r="V11" s="34" t="str">
+        <f>'techniques (ja)'!$C$93</f>
+        <v>AI モデルのアーキテクチャの改変</v>
+      </c>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="34" t="str">
+        <f>'techniques (ja)'!$C$138</f>
+        <v>ユーザー被害</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="C12" s="33" t="str">
+        <f>'techniques (ja)'!$C$104</f>
+        <v>幻覚化されたエンティティの公開</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="M12" s="33" t="str">
+        <f>'techniques (ja)'!$C$86</f>
+        <v>ユーザーの LLM チャット履歴の操作</v>
+      </c>
+      <c r="N12" s="34" t="str">
+        <f>'techniques (ja)'!$C$18</f>
+        <v>アプリケーション アクセス トークン</v>
+      </c>
+      <c r="P12" s="48" t="str">
+        <f>'techniques (ja)'!$C$46</f>
         <v>LLM のシステム情報の探索</v>
       </c>
-      <c r="Q9" s="3" t="str">
-        <f>'techniques (ja)'!C123</f>
+      <c r="Q12" s="34" t="str">
+        <f>'techniques (ja)'!$C$123</f>
         <v>特殊文字セット</v>
       </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="3" t="str">
-        <f>'techniques (ja)'!C136</f>
-        <v>学習済みモデルの使用</v>
-      </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="3" t="str">
-        <f>'techniques (ja)'!C110</f>
-        <v>風評被害</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="C10" s="31"/>
-      <c r="D10" s="3" t="str">
-        <f>'techniques (ja)'!C120</f>
-        <v>ソフトウェア ツール</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>'techniques (ja)'!C139</f>
-        <v>有効なアカウント</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f>'techniques (ja)'!C83</f>
-        <v>LLM からの信頼された出力コンポーネントの操作</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="3" t="str">
-        <f>'techniques (ja)'!C125</f>
+      <c r="U12" s="48"/>
+      <c r="V12" s="34" t="str">
+        <f>'techniques (ja)'!$C$99</f>
+        <v>AI モデルの汚染</v>
+      </c>
+      <c r="Z12" s="33" t="str">
+        <f>'techniques (ja)'!$C$121</f>
+        <v>AI システムに対するチャフ データを使用したスパム攻撃</v>
+      </c>
+      <c r="AA12" s="41"/>
+    </row>
+    <row r="13" spans="1:27" ht="27" x14ac:dyDescent="0.2">
+      <c r="C13" s="33" t="str">
+        <f>'techniques (ja)'!$C$105</f>
+        <v>汚染済みデータセットの公開</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="M13" s="33" t="str">
+        <f>'techniques (ja)'!$C$88</f>
+        <v>マスカレード</v>
+      </c>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="34" t="str">
+        <f>'techniques (ja)'!$C$125</f>
         <v>システム命令に関するキーワード</v>
       </c>
-      <c r="T10" s="32" t="str">
-        <f>'techniques (ja)'!C85</f>
-        <v>AI モデルの操作</v>
-      </c>
-      <c r="U10" s="3" t="str">
-        <f>'techniques (ja)'!C93</f>
-        <v>AI モデルのアーキテクチャの改変</v>
-      </c>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="3" t="str">
-        <f>'techniques (ja)'!C119</f>
-        <v>社会的損害</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="str">
-        <f>'techniques (ja)'!C100</f>
-        <v>学習データの汚染</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f>'techniques (ja)'!C88</f>
-        <v>マスカレード</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="3" t="str">
-        <f>'techniques (ja)'!C126</f>
+      <c r="U13" s="33" t="str">
+        <f>'techniques (ja)'!$C$140</f>
+        <v>攻撃の検証</v>
+      </c>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C14" s="33" t="str">
+        <f>'techniques (ja)'!$C$106</f>
+        <v>汚染済みモデルの公開</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="34" t="str">
+        <f>'techniques (ja)'!$C$126</f>
         <v>システム プロンプト</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="3" t="str">
-        <f>'techniques (ja)'!C99</f>
-        <v>AI モデルの汚染</v>
-      </c>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="3" t="str">
-        <f>'techniques (ja)'!C138</f>
-        <v>ユーザー被害</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="str">
-        <f>'techniques (ja)'!C104</f>
-        <v>幻覚化されたエンティティの公開</v>
-      </c>
-      <c r="T12" s="2" t="str">
-        <f>'techniques (ja)'!C140</f>
-        <v>攻撃の検証</v>
-      </c>
-      <c r="Y12" s="2" t="str">
-        <f>'techniques (ja)'!C121</f>
-        <v>AI システムに対するチャフ データを使用したスパム攻撃</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="str">
-        <f>'techniques (ja)'!C105</f>
-        <v>汚染済みデータセットの公開</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="str">
-        <f>'techniques (ja)'!C106</f>
-        <v>汚染済みモデルの公開</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="str">
-        <f>'techniques (ja)'!C111</f>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="str">
+        <f>'techniques (ja)'!$C$111</f>
         <v>検索コンテンツの作成</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="str">
-        <f>'techniques (ja)'!C124</f>
+      <c r="D15" s="39"/>
+      <c r="P15" s="33" t="str">
+        <f>'techniques (ja)'!$C$102</f>
+        <v>プロセスの探索</v>
+      </c>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C16" s="33" t="str">
+        <f>'techniques (ja)'!$C$124</f>
         <v>機能のステージング</v>
       </c>
+      <c r="D16" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="Y7:Y11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+  <mergeCells count="29">
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="U2:U6"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="Z7:Z11"/>
+    <mergeCell ref="X3:X5"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
